--- a/Task.xlsx
+++ b/Task.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ali\Documents\Projects\debilim.com\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fahimeh\Documents\GitHub\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,9 +62,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Idea</t>
-  </si>
-  <si>
     <t>Kaveh</t>
   </si>
   <si>
@@ -102,12 +99,15 @@
   </si>
   <si>
     <t>Test Environment</t>
+  </si>
+  <si>
+    <t>Idea is donkey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,15 +440,15 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -516,168 +516,168 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>43101</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>43110</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>43110</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1">
         <v>43110</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1">
         <v>43112</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>43112</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
         <v>43112</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1">
         <v>43112</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1">
         <v>43114</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>43116</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
         <v>43118</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>43114</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1">
         <v>43116</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="1">
         <v>43115</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
         <v>43114</v>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -101,7 +101,13 @@
     <t>Test Environment</t>
   </si>
   <si>
-    <t>Idea is donkey</t>
+    <t>Explore Q&amp;A sites</t>
+  </si>
+  <si>
+    <t>Fahimeh</t>
+  </si>
+  <si>
+    <t>Idea</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -681,6 +687,17 @@
       </c>
       <c r="F9" s="1">
         <v>43114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
